--- a/Docs/4조 테이블 목록.xlsx
+++ b/Docs/4조 테이블 목록.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgDNH/lySY53FBnm/Zqs9DjAscu8g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhjN8VtUH3R1ii8YcXh50qASu0uJQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>테이블 목록</t>
   </si>
@@ -113,28 +113,10 @@
     <t>관광데이터_전처리</t>
   </si>
   <si>
-    <t>TB_CL_HAB</t>
+    <t>TB_HAB_PRED</t>
   </si>
   <si>
-    <t>적조정보_정제</t>
-  </si>
-  <si>
-    <t>TB_CL_PRED</t>
-  </si>
-  <si>
-    <t>기상데이터_정제</t>
-  </si>
-  <si>
-    <t>TB_CL_WEATHER</t>
-  </si>
-  <si>
-    <t>날씨데이터_정제</t>
-  </si>
-  <si>
-    <t>TB_CL_TOUR</t>
-  </si>
-  <si>
-    <t>관광데이터_정제</t>
+    <t>적조예측정보</t>
   </si>
   <si>
     <t>테이블목록</t>
@@ -1650,7 +1632,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" ht="23.25" customHeight="1">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1678,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" ht="20.25" customHeight="1">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="10">
         <v>1.0</v>
       </c>
@@ -1742,7 +1724,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="10">
         <v>2.0</v>
       </c>
@@ -1788,7 +1770,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" ht="20.25" customHeight="1">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="9">
         <v>3.0</v>
       </c>
@@ -1834,7 +1816,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" ht="20.25" customHeight="1">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="10">
         <v>4.0</v>
       </c>
@@ -1880,7 +1862,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" ht="20.25" customHeight="1">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="10">
         <v>5.0</v>
       </c>
@@ -1926,7 +1908,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" ht="20.25" customHeight="1">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="9">
         <v>6.0</v>
       </c>
@@ -1972,7 +1954,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" ht="20.25" customHeight="1">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="10">
         <v>7.0</v>
       </c>
@@ -2018,7 +2000,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" ht="20.25" customHeight="1">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="10">
         <v>8.0</v>
       </c>
@@ -2032,16 +2014,16 @@
         <v>32</v>
       </c>
       <c r="E11" s="12">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F11" s="12">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G11" s="12">
-        <v>100000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="H11" s="12">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2064,31 +2046,15 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" ht="20.25" customHeight="1">
-      <c r="A12" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>3000.0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>500000.0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1000.0</v>
-      </c>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2110,31 +2076,15 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2000.0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>300000.0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1000.0</v>
-      </c>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2156,31 +2106,15 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" ht="20.25" customHeight="1">
-      <c r="A14" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3000.0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>500000.0</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1000.0</v>
-      </c>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -31511,96 +31445,6 @@
       <c r="Z991" s="4"/>
       <c r="AA991" s="4"/>
       <c r="AB991" s="4"/>
-    </row>
-    <row r="992" ht="13.5" customHeight="1">
-      <c r="A992" s="13"/>
-      <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="14"/>
-      <c r="F992" s="14"/>
-      <c r="G992" s="14"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
-      <c r="J992" s="4"/>
-      <c r="K992" s="4"/>
-      <c r="L992" s="4"/>
-      <c r="M992" s="4"/>
-      <c r="N992" s="4"/>
-      <c r="O992" s="4"/>
-      <c r="P992" s="4"/>
-      <c r="Q992" s="4"/>
-      <c r="R992" s="4"/>
-      <c r="S992" s="4"/>
-      <c r="T992" s="4"/>
-      <c r="U992" s="4"/>
-      <c r="V992" s="4"/>
-      <c r="W992" s="4"/>
-      <c r="X992" s="4"/>
-      <c r="Y992" s="4"/>
-      <c r="Z992" s="4"/>
-      <c r="AA992" s="4"/>
-      <c r="AB992" s="4"/>
-    </row>
-    <row r="993" ht="13.5" customHeight="1">
-      <c r="A993" s="13"/>
-      <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="14"/>
-      <c r="F993" s="14"/>
-      <c r="G993" s="14"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
-      <c r="K993" s="4"/>
-      <c r="L993" s="4"/>
-      <c r="M993" s="4"/>
-      <c r="N993" s="4"/>
-      <c r="O993" s="4"/>
-      <c r="P993" s="4"/>
-      <c r="Q993" s="4"/>
-      <c r="R993" s="4"/>
-      <c r="S993" s="4"/>
-      <c r="T993" s="4"/>
-      <c r="U993" s="4"/>
-      <c r="V993" s="4"/>
-      <c r="W993" s="4"/>
-      <c r="X993" s="4"/>
-      <c r="Y993" s="4"/>
-      <c r="Z993" s="4"/>
-      <c r="AA993" s="4"/>
-      <c r="AB993" s="4"/>
-    </row>
-    <row r="994" ht="13.5" customHeight="1">
-      <c r="A994" s="13"/>
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="14"/>
-      <c r="F994" s="14"/>
-      <c r="G994" s="14"/>
-      <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
-      <c r="J994" s="4"/>
-      <c r="K994" s="4"/>
-      <c r="L994" s="4"/>
-      <c r="M994" s="4"/>
-      <c r="N994" s="4"/>
-      <c r="O994" s="4"/>
-      <c r="P994" s="4"/>
-      <c r="Q994" s="4"/>
-      <c r="R994" s="4"/>
-      <c r="S994" s="4"/>
-      <c r="T994" s="4"/>
-      <c r="U994" s="4"/>
-      <c r="V994" s="4"/>
-      <c r="W994" s="4"/>
-      <c r="X994" s="4"/>
-      <c r="Y994" s="4"/>
-      <c r="Z994" s="4"/>
-      <c r="AA994" s="4"/>
-      <c r="AB994" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31641,7 +31485,7 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
